--- a/py_work/211115/a.xlsx
+++ b/py_work/211115/a.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,328 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>369</v>
+      </c>
+      <c r="E2" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>69</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>17</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/py_work/211115/a.xlsx
+++ b/py_work/211115/a.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,6 +770,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
